--- a/fuentes/contenidos/grado09/guion05/Escaleta_CS_09_05_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion05/Escaleta_CS_09_05_CO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="161">
   <si>
     <t>Asignatura</t>
   </si>
@@ -464,6 +464,45 @@
   </si>
   <si>
     <t>CS_09_05_CO</t>
+  </si>
+  <si>
+    <t>Las causas de la Segunda Guerra Mundial</t>
+  </si>
+  <si>
+    <t>Actividad que repasa las causas de la Segunda Guerra Mundial</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD</t>
+  </si>
+  <si>
+    <t>Causas de la Segunda Guerra Mundial</t>
+  </si>
+  <si>
+    <t>El pacto germano-soviético</t>
+  </si>
+  <si>
+    <t>Actividad para para entender el significado del pacto germano-soviético</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Actividad para comprender cómo se conformaron los bandos que participaron en la Segunda Guerra Mundial</t>
+  </si>
+  <si>
+    <t>El plan Marschall</t>
+  </si>
+  <si>
+    <t>Actividad que permite entender en qué consistió el Plan Marshall</t>
+  </si>
+  <si>
+    <t>Los hitos de la Segunda Guerra Mundial</t>
+  </si>
+  <si>
+    <t>Actividad para ordenar los principales hitos de la Segunda Guerra mundial</t>
+  </si>
+  <si>
+    <t>m1c</t>
   </si>
 </sst>
 </file>
@@ -506,7 +545,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +591,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,21 +795,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -775,11 +805,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -803,13 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -857,6 +894,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,7 +1219,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1138,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,262 +1255,232 @@
     <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="12" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:20" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:20" s="62" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="34" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="62">
+        <v>1</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="67"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="35">
-        <v>1</v>
-      </c>
-      <c r="I2" s="35" t="s">
+      <c r="H3" s="33">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K3" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="4" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B4" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C4" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D4" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="60">
+        <v>3</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="68"/>
+      <c r="O4" s="60"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="37" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="38">
-        <v>2</v>
-      </c>
-      <c r="I3" s="38" t="s">
+      <c r="H5" s="36">
+        <v>4</v>
+      </c>
+      <c r="I5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J5" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K5" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" t="s">
-        <v>95</v>
-      </c>
-      <c r="T3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="38">
-        <v>3</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S4" t="s">
-        <v>98</v>
-      </c>
-      <c r="T4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="38">
-        <v>4</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="45" t="s">
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="43" t="s">
         <v>19</v>
       </c>
       <c r="P5" t="s">
@@ -1434,218 +1493,216 @@
         <v>87</v>
       </c>
       <c r="S5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="T5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="56">
+        <v>5</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="36">
+        <v>6</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="36">
+        <v>7</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" t="s">
+        <v>87</v>
+      </c>
+      <c r="S8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="56">
+        <v>8</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="51"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="N9" s="69"/>
+      <c r="O9" s="60"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="37" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="38">
-        <v>5</v>
-      </c>
-      <c r="I6" s="38" t="s">
+      <c r="H10" s="36">
+        <v>9</v>
+      </c>
+      <c r="I10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J10" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K10" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R6" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" t="s">
-        <v>103</v>
-      </c>
-      <c r="T6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="38">
-        <v>6</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>92</v>
-      </c>
-      <c r="R9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S9" t="s">
-        <v>105</v>
-      </c>
-      <c r="T9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="38">
-        <v>7</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="45" t="s">
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="43" t="s">
         <v>19</v>
       </c>
       <c r="P10" t="s">
@@ -1658,190 +1715,164 @@
         <v>87</v>
       </c>
       <c r="S10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="T10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="38">
-        <v>8</v>
-      </c>
-      <c r="I11" s="38" t="s">
+      <c r="E11" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="36">
+        <v>100</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" t="s">
+        <v>105</v>
+      </c>
+      <c r="T13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="36">
+        <v>110</v>
+      </c>
+      <c r="I14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="46" t="s">
+      <c r="J14" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" t="s">
-        <v>87</v>
-      </c>
-      <c r="S11" t="s">
-        <v>113</v>
-      </c>
-      <c r="T11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="38">
-        <v>9</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>92</v>
-      </c>
-      <c r="R12" t="s">
-        <v>87</v>
-      </c>
-      <c r="S12" t="s">
-        <v>120</v>
-      </c>
-      <c r="T12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="38">
-        <v>10</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="45" t="s">
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="43" t="s">
         <v>19</v>
       </c>
       <c r="P14" t="s">
@@ -1854,48 +1885,48 @@
         <v>87</v>
       </c>
       <c r="S14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="T14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="38">
-        <v>11</v>
-      </c>
-      <c r="I15" s="38" t="s">
+      <c r="D15" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="36">
+        <v>120</v>
+      </c>
+      <c r="I15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" s="46" t="s">
+      <c r="J15" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="45" t="s">
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="43" t="s">
         <v>19</v>
       </c>
       <c r="P15" t="s">
@@ -1908,48 +1939,50 @@
         <v>87</v>
       </c>
       <c r="S15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="T15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="38">
-        <v>12</v>
-      </c>
-      <c r="I16" s="38" t="s">
+      <c r="E16" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="36">
+        <v>130</v>
+      </c>
+      <c r="I16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="K16" s="46" t="s">
+      <c r="J16" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="45" t="s">
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="43" t="s">
         <v>19</v>
       </c>
       <c r="P16" t="s">
@@ -1962,100 +1995,88 @@
         <v>87</v>
       </c>
       <c r="S16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="T16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:20" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="38">
-        <v>13</v>
-      </c>
-      <c r="I17" s="38" t="s">
+      <c r="D17" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="56">
+        <v>140</v>
+      </c>
+      <c r="I17" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" s="46" t="s">
+      <c r="J17" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="54"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="72"/>
+    </row>
+    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="36">
+        <v>150</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>92</v>
-      </c>
-      <c r="R17" t="s">
-        <v>87</v>
-      </c>
-      <c r="S17" t="s">
-        <v>132</v>
-      </c>
-      <c r="T17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="38">
-        <v>14</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="45" t="s">
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="43" t="s">
         <v>19</v>
       </c>
       <c r="P18" t="s">
@@ -2068,46 +2089,48 @@
         <v>87</v>
       </c>
       <c r="S18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="T18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="38">
-        <v>15</v>
-      </c>
-      <c r="I19" s="38" t="s">
+      <c r="D19" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="36">
+        <v>160</v>
+      </c>
+      <c r="I19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="K19" s="46" t="s">
+      <c r="J19" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="45" t="s">
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="43" t="s">
         <v>19</v>
       </c>
       <c r="P19" t="s">
@@ -2120,46 +2143,48 @@
         <v>87</v>
       </c>
       <c r="S19" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="T19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="38">
-        <v>16</v>
-      </c>
-      <c r="I20" s="38" t="s">
+      <c r="D20" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="36">
+        <v>170</v>
+      </c>
+      <c r="I20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="46" t="s">
+      <c r="J20" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="45" t="s">
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="43" t="s">
         <v>19</v>
       </c>
       <c r="P20" t="s">
@@ -2172,182 +2197,285 @@
         <v>87</v>
       </c>
       <c r="S20" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="T20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:20" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="56">
+        <v>180</v>
+      </c>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="59"/>
+      <c r="O21" s="60"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D22" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="36">
+        <v>190</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>92</v>
+      </c>
+      <c r="R22" t="s">
+        <v>87</v>
+      </c>
+      <c r="S22" t="s">
+        <v>132</v>
+      </c>
+      <c r="T22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="36">
+        <v>20</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>92</v>
+      </c>
+      <c r="R23" t="s">
+        <v>87</v>
+      </c>
+      <c r="S23" t="s">
+        <v>133</v>
+      </c>
+      <c r="T23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="36">
+        <v>21</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" t="s">
+        <v>87</v>
+      </c>
+      <c r="S24" t="s">
+        <v>138</v>
+      </c>
+      <c r="T24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="36">
+        <v>22</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>92</v>
+      </c>
+      <c r="R25" t="s">
+        <v>87</v>
+      </c>
+      <c r="S25" t="s">
+        <v>141</v>
+      </c>
+      <c r="T25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="37" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="H21" s="38">
-        <v>17</v>
-      </c>
-      <c r="I21" s="38" t="s">
+      <c r="H26" s="36">
+        <v>23</v>
+      </c>
+      <c r="I26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J26" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K26" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="45" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="38">
-        <v>18</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="K22" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="45"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
@@ -2355,21 +2483,45 @@
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="45"/>
+      <c r="A27" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="36">
+        <v>24</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="46"/>
+      <c r="O27" s="43" t="s">
+        <v>19</v>
+      </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
@@ -2377,21 +2529,21 @@
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="45"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="43"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
@@ -2399,21 +2551,21 @@
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="45"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="43"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
@@ -2421,21 +2573,21 @@
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="45"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="43"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
@@ -2443,21 +2595,21 @@
       <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="45"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="43"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
@@ -2465,21 +2617,21 @@
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="45"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="43"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
@@ -2487,21 +2639,21 @@
       <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="45"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="43"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
@@ -2509,21 +2661,21 @@
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="45"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="43"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
@@ -2531,21 +2683,21 @@
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="45"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="43"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
@@ -2553,21 +2705,21 @@
       <c r="T35" s="2"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="45"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="43"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
@@ -2575,21 +2727,21 @@
       <c r="T36" s="2"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="45"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="43"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
@@ -2597,21 +2749,21 @@
       <c r="T37" s="2"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="45"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="43"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
@@ -2619,21 +2771,21 @@
       <c r="T38" s="2"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="45"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="43"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
@@ -2641,43 +2793,43 @@
       <c r="T39" s="2"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="45"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="43"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="45"/>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="43"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
@@ -2685,21 +2837,21 @@
       <c r="T41" s="2"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="45"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="43"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
@@ -2707,21 +2859,21 @@
       <c r="T42" s="2"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="45"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="43"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
@@ -2729,21 +2881,21 @@
       <c r="T43" s="2"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="45"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="43"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
@@ -2751,43 +2903,43 @@
       <c r="T44" s="2"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="45"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="43"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="13"/>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="45"/>
+    <row r="46" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="43"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
@@ -2795,21 +2947,21 @@
       <c r="T46" s="2"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="45"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="43"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
@@ -2817,21 +2969,21 @@
       <c r="T47" s="2"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="45"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="43"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
@@ -2839,21 +2991,21 @@
       <c r="T48" s="2"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="45"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="43"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
@@ -2861,21 +3013,21 @@
       <c r="T49" s="2"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="45"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="43"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="13"/>
@@ -2883,21 +3035,21 @@
       <c r="T50" s="2"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="45"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="43"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
@@ -2905,21 +3057,21 @@
       <c r="T51" s="2"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="45"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="43"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="13"/>
       <c r="R52" s="13"/>
@@ -2927,21 +3079,21 @@
       <c r="T52" s="2"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="45"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="43"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="13"/>
       <c r="R53" s="13"/>
@@ -2949,21 +3101,21 @@
       <c r="T53" s="2"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="45"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="43"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="13"/>
       <c r="R54" s="13"/>
@@ -2971,21 +3123,21 @@
       <c r="T54" s="2"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="45"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="43"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="13"/>
       <c r="R55" s="13"/>
@@ -2993,21 +3145,21 @@
       <c r="T55" s="2"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="45"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="43"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="13"/>
       <c r="R56" s="13"/>
@@ -3015,21 +3167,21 @@
       <c r="T56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="45"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="43"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="13"/>
       <c r="R57" s="13"/>
@@ -3037,21 +3189,21 @@
       <c r="T57" s="2"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="45"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="43"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
@@ -3059,21 +3211,21 @@
       <c r="T58" s="2"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="45"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="43"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
@@ -3081,21 +3233,21 @@
       <c r="T59" s="2"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="45"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="43"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
@@ -3103,21 +3255,21 @@
       <c r="T60" s="2"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="45"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="43"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
@@ -3125,21 +3277,21 @@
       <c r="T61" s="2"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="45"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="43"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
@@ -3147,21 +3299,21 @@
       <c r="T62" s="2"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="45"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="43"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="13"/>
       <c r="R63" s="13"/>
@@ -3169,21 +3321,21 @@
       <c r="T63" s="2"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="45"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="43"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="13"/>
       <c r="R64" s="13"/>
@@ -3191,21 +3343,21 @@
       <c r="T64" s="2"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="45"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="43"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
@@ -3213,21 +3365,21 @@
       <c r="T65" s="2"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="45"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="43"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
@@ -3235,21 +3387,21 @@
       <c r="T66" s="2"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="45"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="43"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="13"/>
       <c r="R67" s="13"/>
@@ -3257,21 +3409,21 @@
       <c r="T67" s="2"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="45"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="43"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="13"/>
       <c r="R68" s="13"/>
@@ -3279,21 +3431,21 @@
       <c r="T68" s="2"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="45"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="43"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
@@ -3301,21 +3453,21 @@
       <c r="T69" s="2"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="45"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="43"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
@@ -3323,21 +3475,21 @@
       <c r="T70" s="2"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="45"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="43"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
@@ -3345,21 +3497,21 @@
       <c r="T71" s="2"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="45"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="43"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
@@ -3367,21 +3519,21 @@
       <c r="T72" s="2"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="45"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="43"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
@@ -3389,21 +3541,21 @@
       <c r="T73" s="2"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="48"/>
-      <c r="O74" s="45"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="43"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
@@ -3411,21 +3563,21 @@
       <c r="T74" s="2"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="47"/>
-      <c r="M75" s="47"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="45"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="43"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
@@ -3433,21 +3585,21 @@
       <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="45"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="43"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
@@ -3455,21 +3607,21 @@
       <c r="T76" s="2"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="48"/>
-      <c r="O77" s="45"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="43"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
@@ -3477,21 +3629,21 @@
       <c r="T77" s="2"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="48"/>
-      <c r="O78" s="45"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="43"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
@@ -3499,21 +3651,21 @@
       <c r="T78" s="2"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="48"/>
-      <c r="O79" s="45"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="43"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="13"/>
       <c r="R79" s="13"/>
@@ -3521,21 +3673,21 @@
       <c r="T79" s="2"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="48"/>
-      <c r="O80" s="45"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="43"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="13"/>
       <c r="R80" s="13"/>
@@ -3543,21 +3695,21 @@
       <c r="T80" s="2"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="48"/>
-      <c r="O81" s="45"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="43"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="13"/>
       <c r="R81" s="13"/>
@@ -3565,21 +3717,21 @@
       <c r="T81" s="2"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="48"/>
-      <c r="O82" s="45"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="43"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
@@ -3587,21 +3739,21 @@
       <c r="T82" s="2"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="48"/>
-      <c r="O83" s="45"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="43"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
@@ -3609,21 +3761,21 @@
       <c r="T83" s="2"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="47"/>
-      <c r="M84" s="47"/>
-      <c r="N84" s="48"/>
-      <c r="O84" s="45"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="45"/>
+      <c r="N84" s="46"/>
+      <c r="O84" s="43"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
@@ -3631,21 +3783,21 @@
       <c r="T84" s="2"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="47"/>
-      <c r="M85" s="47"/>
-      <c r="N85" s="48"/>
-      <c r="O85" s="45"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="45"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="43"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
@@ -3653,21 +3805,21 @@
       <c r="T85" s="2"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="46"/>
-      <c r="L86" s="47"/>
-      <c r="M86" s="47"/>
-      <c r="N86" s="48"/>
-      <c r="O86" s="45"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="46"/>
+      <c r="O86" s="43"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="13"/>
       <c r="R86" s="13"/>
@@ -3675,21 +3827,21 @@
       <c r="T86" s="2"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="47"/>
-      <c r="M87" s="47"/>
-      <c r="N87" s="48"/>
-      <c r="O87" s="45"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="43"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="13"/>
       <c r="R87" s="13"/>
@@ -3697,21 +3849,21 @@
       <c r="T87" s="2"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="47"/>
-      <c r="M88" s="47"/>
-      <c r="N88" s="48"/>
-      <c r="O88" s="45"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="43"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="13"/>
       <c r="R88" s="13"/>
@@ -3719,21 +3871,21 @@
       <c r="T88" s="2"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="47"/>
-      <c r="M89" s="47"/>
-      <c r="N89" s="48"/>
-      <c r="O89" s="45"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="43"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
@@ -3741,26 +3893,136 @@
       <c r="T89" s="2"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="47"/>
-      <c r="M90" s="47"/>
-      <c r="N90" s="48"/>
-      <c r="O90" s="45"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="45"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="43"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="13"/>
       <c r="R90" s="13"/>
       <c r="S90" s="13"/>
       <c r="T90" s="2"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="21"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="45"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="2"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="45"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="2"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="21"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="46"/>
+      <c r="O93" s="43"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="2"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="45"/>
+      <c r="M94" s="45"/>
+      <c r="N94" s="46"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="2"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="21"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="45"/>
+      <c r="M95" s="45"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3772,31 +4034,31 @@
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A90</xm:sqref>
+          <xm:sqref>A2:A95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K90</xm:sqref>
+          <xm:sqref>K3:K95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$2:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L90</xm:sqref>
+          <xm:sqref>L3:L95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$2:$B$50</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M90</xm:sqref>
+          <xm:sqref>M2:M95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O90</xm:sqref>
+          <xm:sqref>O3:O95</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado09/guion05/Escaleta_CS_09_05_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion05/Escaleta_CS_09_05_CO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="162">
   <si>
     <t>Asignatura</t>
   </si>
@@ -466,9 +466,6 @@
     <t>CS_09_05_CO</t>
   </si>
   <si>
-    <t>Las causas de la Segunda Guerra Mundial</t>
-  </si>
-  <si>
     <t>Actividad que repasa las causas de la Segunda Guerra Mundial</t>
   </si>
   <si>
@@ -503,6 +500,12 @@
   </si>
   <si>
     <t>m1c</t>
+  </si>
+  <si>
+    <t>Actividad que repasa los orígenes de la Segunda Guerra Mundial</t>
+  </si>
+  <si>
+    <t>los orígenes de la Segunda Guerra Mundial</t>
   </si>
 </sst>
 </file>
@@ -822,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -946,6 +949,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,7 +1225,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1229,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="62" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="62" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>66</v>
       </c>
@@ -1332,23 +1338,23 @@
       </c>
       <c r="E2" s="58"/>
       <c r="F2" s="58"/>
-      <c r="G2" s="62" t="s">
-        <v>148</v>
+      <c r="G2" s="74" t="s">
+        <v>161</v>
       </c>
       <c r="H2" s="62">
         <v>1</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="64" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="73" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K2" s="63" t="s">
         <v>69</v>
       </c>
       <c r="L2" s="64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M2" s="67"/>
       <c r="N2" s="64"/>
@@ -1424,7 +1430,7 @@
       <c r="E4" s="51"/>
       <c r="F4" s="52"/>
       <c r="G4" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H4" s="60">
         <v>3</v>
@@ -1433,7 +1439,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K4" s="51" t="s">
         <v>69</v>
@@ -1515,7 +1521,7 @@
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
       <c r="G6" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="56">
         <v>5</v>
@@ -1524,7 +1530,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K6" s="51" t="s">
         <v>69</v>
@@ -1654,15 +1660,15 @@
         <v>8</v>
       </c>
       <c r="I9" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="57" t="s">
         <v>154</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>155</v>
       </c>
       <c r="K9" s="51"/>
       <c r="L9" s="58"/>
       <c r="M9" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N9" s="69"/>
       <c r="O9" s="60"/>
@@ -2019,7 +2025,7 @@
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H17" s="56">
         <v>140</v>
@@ -2028,7 +2034,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K17" s="54"/>
       <c r="L17" s="58"/>
@@ -2211,14 +2217,14 @@
       <c r="E21" s="54"/>
       <c r="F21" s="55"/>
       <c r="G21" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H21" s="56">
         <v>180</v>
       </c>
       <c r="I21" s="56"/>
       <c r="J21" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K21" s="54" t="s">
         <v>69</v>

--- a/fuentes/contenidos/grado09/guion05/Escaleta_CS_09_05_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion05/Escaleta_CS_09_05_CO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="162">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1225,7 +1225,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,7 +2222,9 @@
       <c r="H21" s="56">
         <v>180</v>
       </c>
-      <c r="I21" s="56"/>
+      <c r="I21" s="56" t="s">
+        <v>153</v>
+      </c>
       <c r="J21" s="57" t="s">
         <v>158</v>
       </c>

--- a/fuentes/contenidos/grado09/guion05/Escaleta_CS_09_05_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion05/Escaleta_CS_09_05_CO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="3300"/>
@@ -10,12 +10,12 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="194">
   <si>
     <t>Asignatura</t>
   </si>
@@ -543,6 +543,60 @@
   </si>
   <si>
     <t>Banco de actividades: La Segunda Guerra Mundial</t>
+  </si>
+  <si>
+    <t>AJUSTAR ENUNCIADO: EN MANO</t>
+  </si>
+  <si>
+    <t>ESTA INCOMPLETO EN GRECO. FALTA FICHA Y COMPLETAR ANIMACION</t>
+  </si>
+  <si>
+    <t>NO ESTA AUN</t>
+  </si>
+  <si>
+    <t>faltan fichas</t>
+  </si>
+  <si>
+    <t>se mencionan países que no están en el Cuaderno de estudio ni en el Profundiza. Es mejor reducir el ejercicio a los países mencionados.</t>
+  </si>
+  <si>
+    <t>falta adaptar el video. NO HAY FICHAS</t>
+  </si>
+  <si>
+    <t>NO CARGA EL VIDEO. Puede tomar se aula hispánica http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idpack=10&amp;idpil=VI000472&amp;ruta=Buscador}</t>
+  </si>
+  <si>
+    <t>EL ENUNCIADO SIGUE CON VÍDEO CON TILDE</t>
+  </si>
+  <si>
+    <t>NO TOMA EN CUENTA AJUSTES SOLICITADOS EN CUADERNO DE ESTUDIO. NO TIENE FICHAS</t>
+  </si>
+  <si>
+    <t>AJUSTAR ENUNCIADO: EN MANO / slide 3: tomar en cuenta lo que dice Cuaderno de estudio: Busca información sobre la teoría alemana del “espacio vital” y relaciónala con el estallido de la Segunda Guerra Mundial.</t>
+  </si>
+  <si>
+    <t>NO TIENE EN CUENTA AJUSTE SOLICITADO EN EL ENUNCIADO: Completa el siguiente texto sobre el Holocausto y las consecuencias del extremismo nazi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALTA AJUSTAR ENUNCIADO: EN MANO… </t>
+  </si>
+  <si>
+    <t>FALTAN FICHAS.</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>TOMAR EN CUENTA SOLICITUD  DE CAMBIO MENCIONADAS EN EL CUADERNO: Antes de empezar a hacer el análisis del texto y para repasar los conocimientos previos sobre la materia, te proponemos que respondas a las siguientes preguntas:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMAR EN CUENTA VARIAS SOLICITUD ES DE CAMBIO MENCIONADAS EN EL CUADERNO, CON RESPECTO A LOS VERBOS. </t>
+  </si>
+  <si>
+    <t>VELA POR LA PAZ EL VELA DEBE IR CON MINUSCULA</t>
+  </si>
+  <si>
+    <t>FALTA POR SUBIR A GRECO.</t>
   </si>
 </sst>
 </file>
@@ -579,7 +633,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +682,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -857,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -972,6 +1032,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1241,7 +1303,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1249,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="U28" sqref="S28:U28"/>
+    <sheetView tabSelected="1" topLeftCell="L10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1342,7 @@
     <col min="22" max="16384" width="10.7109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="18" customFormat="1" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" s="18" customFormat="1" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
       <c r="C2" s="57"/>
@@ -1366,7 +1428,7 @@
       <c r="T2" s="51"/>
       <c r="U2" s="51"/>
     </row>
-    <row r="3" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>66</v>
       </c>
@@ -1418,8 +1480,11 @@
       <c r="U3" s="21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>66</v>
       </c>
@@ -1477,8 +1542,11 @@
       <c r="U4" s="28" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>66</v>
       </c>
@@ -1532,8 +1600,11 @@
       <c r="U5" s="21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>66</v>
       </c>
@@ -1591,8 +1662,11 @@
       <c r="U6" s="28" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>66</v>
       </c>
@@ -1646,8 +1720,11 @@
       <c r="U7" s="21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>66</v>
       </c>
@@ -1699,8 +1776,11 @@
       <c r="U8" s="21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.45">
+      <c r="V8" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="35" customFormat="1" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A9" s="58" t="s">
         <v>66</v>
       </c>
@@ -1758,8 +1838,11 @@
       <c r="U9" s="28" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>66</v>
       </c>
@@ -1813,8 +1896,11 @@
       <c r="U10" s="21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>66</v>
       </c>
@@ -1847,7 +1933,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="44"/>
     </row>
-    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A12" s="62" t="s">
         <v>66</v>
       </c>
@@ -1880,7 +1966,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="46"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>66</v>
       </c>
@@ -1934,8 +2020,11 @@
       <c r="U13" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="71" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>66</v>
       </c>
@@ -1989,8 +2078,14 @@
       <c r="U14" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="W14" s="70" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>66</v>
       </c>
@@ -2044,8 +2139,11 @@
       <c r="U15" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
         <v>66</v>
       </c>
@@ -2101,8 +2199,11 @@
       <c r="U16" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>66</v>
       </c>
@@ -2162,8 +2263,11 @@
       <c r="U17" s="28" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>66</v>
       </c>
@@ -2217,8 +2321,11 @@
       <c r="U18" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="70" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>66</v>
       </c>
@@ -2272,8 +2379,11 @@
       <c r="U19" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>66</v>
       </c>
@@ -2327,8 +2437,11 @@
       <c r="U20" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
         <v>66</v>
       </c>
@@ -2380,8 +2493,11 @@
       <c r="U21" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V21" s="70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>66</v>
       </c>
@@ -2439,8 +2555,11 @@
       <c r="U22" s="28" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>66</v>
       </c>
@@ -2494,8 +2613,11 @@
       <c r="U23" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>66</v>
       </c>
@@ -2547,8 +2669,11 @@
       <c r="U24" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
         <v>66</v>
       </c>
@@ -2600,8 +2725,11 @@
       <c r="U25" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="70" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
         <v>66</v>
       </c>
@@ -2643,8 +2771,11 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="44"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
         <v>66</v>
       </c>
@@ -2692,8 +2823,11 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="44"/>
-    </row>
-    <row r="28" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V27" s="70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
         <v>66</v>
       </c>
@@ -2738,6 +2872,9 @@
       </c>
       <c r="U28" s="69" t="s">
         <v>93</v>
+      </c>
+      <c r="V28" s="35" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2994,7 +3131,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>85</v>
@@ -3006,7 +3143,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
         <v>47</v>
@@ -3018,7 +3155,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
         <v>83</v>
@@ -3030,7 +3167,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
         <v>48</v>
@@ -3042,7 +3179,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
         <v>49</v>
@@ -3054,7 +3191,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>50</v>
@@ -3066,7 +3203,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>51</v>
@@ -3078,7 +3215,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>24</v>
@@ -3090,7 +3227,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
         <v>52</v>
@@ -3102,7 +3239,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>53</v>
@@ -3112,7 +3249,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>54</v>
@@ -3122,7 +3259,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
         <v>55</v>
@@ -3132,7 +3269,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
         <v>56</v>
@@ -3142,7 +3279,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
         <v>57</v>
@@ -3152,7 +3289,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>58</v>
@@ -3162,7 +3299,7 @@
       <c r="E30" s="7"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
         <v>59</v>
@@ -3172,7 +3309,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
         <v>60</v>
@@ -3182,7 +3319,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>61</v>
@@ -3192,7 +3329,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>21</v>
@@ -3202,7 +3339,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
         <v>62</v>
@@ -3212,7 +3349,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
         <v>63</v>
@@ -3222,7 +3359,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="7" t="s">
         <v>64</v>
@@ -3232,7 +3369,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="7" t="s">
         <v>34</v>
@@ -3242,7 +3379,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="7" t="s">
         <v>35</v>
@@ -3252,7 +3389,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="7" t="s">
         <v>36</v>
@@ -3262,7 +3399,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="7" t="s">
         <v>37</v>
@@ -3272,7 +3409,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="7" t="s">
         <v>38</v>
@@ -3282,7 +3419,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="7" t="s">
         <v>39</v>
@@ -3292,7 +3429,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="7" t="s">
         <v>40</v>
@@ -3302,7 +3439,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="7" t="s">
         <v>41</v>
